--- a/legislator/property/output/normal/王廷升_2011-12-06_財產申報表_tmp44311.xlsx
+++ b/legislator/property/output/normal/王廷升_2011-12-06_財產申報表_tmp44311.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="117">
   <si>
     <t>土地坐落</t>
   </si>
@@ -203,6 +203,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>聯華實業股份有限公司</t>
   </si>
   <si>
@@ -261,6 +270,9 @@
   </si>
   <si>
     <t>新臺飧</t>
+  </si>
+  <si>
+    <t>2011-12-06</t>
   </si>
   <si>
     <t>名</t>
@@ -1138,13 +1150,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1163,13 +1175,22 @@
       <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -1186,13 +1207,22 @@
       <c r="G2" s="2">
         <v>60410</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -1209,13 +1239,22 @@
       <c r="G3" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -1232,13 +1271,22 @@
       <c r="G4" s="2">
         <v>116560</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -1255,13 +1303,22 @@
       <c r="G5" s="2">
         <v>21870</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -1278,13 +1335,22 @@
       <c r="G6" s="2">
         <v>217360</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1301,13 +1367,22 @@
       <c r="G7" s="2">
         <v>1999590</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -1324,13 +1399,22 @@
       <c r="G8" s="2">
         <v>717150</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -1347,13 +1431,22 @@
       <c r="G9" s="2">
         <v>152930</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -1370,13 +1463,22 @@
       <c r="G10" s="2">
         <v>245810</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -1393,13 +1495,22 @@
       <c r="G11" s="2">
         <v>155030</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -1416,13 +1527,22 @@
       <c r="G12" s="2">
         <v>13440</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -1439,13 +1559,22 @@
       <c r="G13" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -1462,13 +1591,22 @@
       <c r="G14" s="2">
         <v>2316990</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -1485,13 +1623,22 @@
       <c r="G15" s="2">
         <v>36910</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>77</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -1508,13 +1655,22 @@
       <c r="G16" s="2">
         <v>20500</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>78</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
@@ -1531,13 +1687,22 @@
       <c r="G17" s="2">
         <v>10100</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
@@ -1554,13 +1719,22 @@
       <c r="G18" s="2">
         <v>101460</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
@@ -1572,18 +1746,27 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G19" s="2">
         <v>100940</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>81</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
@@ -1599,6 +1782,15 @@
       </c>
       <c r="G20" s="2">
         <v>35160</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1727</v>
       </c>
     </row>
   </sheetData>
@@ -1616,22 +1808,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1639,14 +1831,14 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1656,22 +1848,22 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1689,13 +1881,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1703,10 +1895,10 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -1730,19 +1922,19 @@
         <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1750,22 +1942,22 @@
         <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>4182443</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1773,22 +1965,22 @@
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2">
         <v>2354028</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1796,22 +1988,22 @@
         <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2">
         <v>700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王廷升_2011-12-06_財產申報表_tmp44311.xlsx
+++ b/legislator/property/output/normal/王廷升_2011-12-06_財產申報表_tmp44311.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="119">
   <si>
     <t>土地坐落</t>
   </si>
@@ -203,6 +203,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -221,22 +224,22 @@
     <t>佳能企業股份有限公司</t>
   </si>
   <si>
-    <t>彰化商業銀行股份有限公 司</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行股份有 限公司’</t>
-  </si>
-  <si>
-    <t>中華開發金融控股股份有 限公司</t>
-  </si>
-  <si>
-    <t>玉山金融控股股份有限公 司</t>
-  </si>
-  <si>
-    <t>台新金融控股股份有限公 司</t>
-  </si>
-  <si>
-    <t>第一金融控股股份有限公 司</t>
+    <t>彰化商業銀行股份有限公司</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行股份有限公司’</t>
+  </si>
+  <si>
+    <t>中華開發金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>玉山金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>台新金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>第一金融控股股份有限公司</t>
   </si>
   <si>
     <t>遠東百貨股份有限公司</t>
@@ -245,10 +248,10 @@
     <t>_創資通股份有限公司</t>
   </si>
   <si>
-    <t>遠雄建設事業股份有限公 司</t>
-  </si>
-  <si>
-    <t>遠雄自賀港投資控股股份 有限公司</t>
+    <t>遠雄建設事業股份有限公司</t>
+  </si>
+  <si>
+    <t>遠雄自賀港投資控股股份有限公司</t>
   </si>
   <si>
     <t>瑞儀光電股份有限公司</t>
@@ -260,16 +263,19 @@
     <t>台灣水泥股份有限公司</t>
   </si>
   <si>
-    <t>台灣積體電路製造股份有 限公司</t>
-  </si>
-  <si>
-    <t>華南金融控股股份有限公 司</t>
-  </si>
-  <si>
-    <t>寶來曼氏期貨股份有限公 司</t>
+    <t>台灣積體電路製造股份有限公司</t>
+  </si>
+  <si>
+    <t>華南金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>寶來曼氏期貨股份有限公司</t>
   </si>
   <si>
     <t>新臺飧</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-12-06</t>
@@ -1150,13 +1156,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1184,13 +1190,16 @@
       <c r="J1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -1208,21 +1217,24 @@
         <v>60410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2">
+        <v>85</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -1240,21 +1252,24 @@
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2">
+        <v>85</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -1272,21 +1287,24 @@
         <v>116560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="2">
+        <v>85</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -1304,21 +1322,24 @@
         <v>21870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="2">
+        <v>85</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -1336,21 +1357,24 @@
         <v>217360</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="2">
+        <v>85</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1368,21 +1392,24 @@
         <v>1999590</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2">
+        <v>85</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -1400,21 +1427,24 @@
         <v>717150</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="2">
+        <v>85</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -1432,21 +1462,24 @@
         <v>152930</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="2">
+        <v>85</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -1464,21 +1497,24 @@
         <v>245810</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="2">
+        <v>85</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -1496,21 +1532,24 @@
         <v>155030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="2">
+        <v>85</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -1528,21 +1567,24 @@
         <v>13440</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="2">
+        <v>85</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -1560,21 +1602,24 @@
         <v>100000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="2">
+        <v>85</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -1592,21 +1637,24 @@
         <v>2316990</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="2">
+        <v>85</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -1624,21 +1672,24 @@
         <v>36910</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="2">
+        <v>85</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>77</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -1656,21 +1707,24 @@
         <v>20500</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="2">
+        <v>85</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>78</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
@@ -1688,21 +1742,24 @@
         <v>10100</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="2">
+        <v>85</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
@@ -1720,21 +1777,24 @@
         <v>101460</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="2">
+        <v>85</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
@@ -1746,27 +1806,30 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G19" s="2">
         <v>100940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="2">
+        <v>85</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>81</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
@@ -1784,12 +1847,15 @@
         <v>35160</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="2">
+        <v>85</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="2">
         <v>1727</v>
       </c>
     </row>
@@ -1808,22 +1874,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1831,14 +1897,14 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1848,22 +1914,22 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1881,13 +1947,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1895,10 +1961,10 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -1922,19 +1988,19 @@
         <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1942,22 +2008,22 @@
         <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2">
         <v>4182443</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1965,22 +2031,22 @@
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2">
         <v>2354028</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1988,22 +2054,22 @@
         <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2">
         <v>700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王廷升_2011-12-06_財產申報表_tmp44311.xlsx
+++ b/legislator/property/output/normal/王廷升_2011-12-06_財產申報表_tmp44311.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="124">
   <si>
     <t>土地坐落</t>
   </si>
@@ -206,6 +206,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -215,6 +218,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>聯華實業股份有限公司</t>
   </si>
   <si>
@@ -227,7 +236,7 @@
     <t>彰化商業銀行股份有限公司</t>
   </si>
   <si>
-    <t>臺灣中小企業銀行股份有限公司’</t>
+    <t>臺灣中小企業銀行股份有限公司</t>
   </si>
   <si>
     <t>中華開發金融控股股份有限公司</t>
@@ -245,7 +254,7 @@
     <t>遠東百貨股份有限公司</t>
   </si>
   <si>
-    <t>_創資通股份有限公司</t>
+    <t>創資通股份有限公司</t>
   </si>
   <si>
     <t>遠雄建設事業股份有限公司</t>
@@ -278,7 +287,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-12-06</t>
+  </si>
+  <si>
+    <t>tmp44311</t>
   </si>
   <si>
     <t>名</t>
@@ -1156,13 +1171,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1193,13 +1208,22 @@
       <c r="K1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -1217,24 +1241,33 @@
         <v>60410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -1252,24 +1285,33 @@
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="2">
+        <v>89</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -1287,24 +1329,33 @@
         <v>116560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="2">
+        <v>89</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -1322,24 +1373,33 @@
         <v>21870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="2">
+        <v>89</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -1357,24 +1417,33 @@
         <v>217360</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="2">
+        <v>89</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1392,24 +1461,33 @@
         <v>1999590</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="2">
+        <v>89</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -1427,24 +1505,33 @@
         <v>717150</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="2">
+        <v>89</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -1462,24 +1549,33 @@
         <v>152930</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="2">
+        <v>89</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -1497,24 +1593,33 @@
         <v>245810</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="2">
+        <v>89</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -1532,24 +1637,33 @@
         <v>155030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="2">
+        <v>89</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -1567,24 +1681,33 @@
         <v>13440</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2">
+        <v>89</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -1602,24 +1725,33 @@
         <v>100000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="2">
+        <v>89</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -1637,24 +1769,33 @@
         <v>2316990</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="2">
+        <v>89</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -1672,24 +1813,33 @@
         <v>36910</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="2">
+        <v>89</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N15" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>77</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -1707,24 +1857,33 @@
         <v>20500</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="2">
+        <v>89</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>78</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
@@ -1742,24 +1901,33 @@
         <v>10100</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="2">
+        <v>89</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N17" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
@@ -1777,24 +1945,33 @@
         <v>101460</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="2">
+        <v>89</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N18" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
@@ -1806,30 +1983,39 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G19" s="2">
         <v>100940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="2">
+        <v>89</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N19" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>81</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
@@ -1847,16 +2033,25 @@
         <v>35160</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="2">
+        <v>89</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="2">
         <v>1727</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N20" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1874,22 +2069,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1897,14 +2092,14 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1914,22 +2109,22 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1947,13 +2142,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1961,10 +2156,10 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -1988,19 +2183,19 @@
         <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2008,22 +2203,22 @@
         <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2">
         <v>4182443</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2031,22 +2226,22 @@
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2">
         <v>2354028</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2054,22 +2249,22 @@
         <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2">
         <v>700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王廷升_2011-12-06_財產申報表_tmp44311.xlsx
+++ b/legislator/property/output/normal/王廷升_2011-12-06_財產申報表_tmp44311.xlsx
@@ -21,9 +21,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="124">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="122">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市明義段00730000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣光復鄉阿托莫段17110000地號</t>
+  </si>
+  <si>
+    <t>10000分之1111</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之593</t>
+  </si>
+  <si>
+    <t>王廷升</t>
+  </si>
+  <si>
+    <t>謝逸萍</t>
+  </si>
+  <si>
+    <t>98年12月21日</t>
+  </si>
+  <si>
+    <t>98年01月07日</t>
+  </si>
+  <si>
+    <t>84年06月30日</t>
+  </si>
+  <si>
+    <t>(交換轉移）</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>(購買）</t>
+  </si>
+  <si>
+    <t>1460994.</t>
+  </si>
+  <si>
+    <t>758268(輯過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-06</t>
+  </si>
+  <si>
+    <t>tmp44311</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,79 +143,13 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>花蓮縣花蓮市明義段0073-0000 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣光復鄉阿托莫段 1711-0000 地號</t>
-  </si>
-  <si>
-    <t>土 地</t>
-  </si>
-  <si>
-    <t>坐</t>
-  </si>
-  <si>
-    <t>10000分之 1111</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 593</t>
-  </si>
-  <si>
-    <t>落</t>
-  </si>
-  <si>
-    <t>王廷升</t>
-  </si>
-  <si>
-    <t>謝逸萍</t>
-  </si>
-  <si>
-    <t>面積（平方 公尺）</t>
-  </si>
-  <si>
-    <t>98年12月 21日</t>
-  </si>
-  <si>
-    <t>98年01月 07日</t>
-  </si>
-  <si>
-    <t>84年06月 30日</t>
-  </si>
-  <si>
-    <t>權利範圍 (持分）</t>
-  </si>
-  <si>
-    <t>(交換轉 移）</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>(購買）</t>
-  </si>
-  <si>
-    <t>1,460,994 .</t>
-  </si>
-  <si>
-    <t>758，268(輯過 五年）</t>
-  </si>
-  <si>
-    <t>變動時間</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市明義段01908-000 建號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市明義段01910-000 建號</t>
-  </si>
-  <si>
-    <t>建 物</t>
+    <t>花蓮縣花蓮市明義段01908000建號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市明義段01910000建號</t>
+  </si>
+  <si>
+    <t>建物</t>
   </si>
   <si>
     <t>標</t>
@@ -125,13 +158,10 @@
     <t>示</t>
   </si>
   <si>
-    <t>面積（乎方 公尺）</t>
-  </si>
-  <si>
-    <t>99年09月 14日</t>
-  </si>
-  <si>
-    <t>(交'換轉 移）</t>
+    <t>面積（乎方公尺）</t>
+  </si>
+  <si>
+    <t>99年09月14日</t>
   </si>
   <si>
     <t>所</t>
@@ -152,7 +182,7 @@
     <t>豐田國辱</t>
   </si>
   <si>
-    <t>95年07月 21曰</t>
+    <t>95年07月21曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -170,13 +200,13 @@
     <t>花蓮縣花蓮市農會信用部</t>
   </si>
   <si>
-    <t>兆豐國際商業銀行花蓮分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行花蓮分 行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行花蓮分 行</t>
+    <t>兆豐國際商業銀行花蓮分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行花蓮分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行花蓮分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -185,12 +215,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -203,27 +227,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>聯華實業股份有限公司</t>
   </si>
   <si>
@@ -287,15 +290,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-12-06</t>
-  </si>
-  <si>
-    <t>tmp44311</t>
-  </si>
-  <si>
     <t>名</t>
   </si>
   <si>
@@ -311,22 +305,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>I額：新臺幣 元）</t>
+    <t>I額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -374,22 +368,22 @@
     <t>民間借款</t>
   </si>
   <si>
-    <t>兆豐國際商銀 花蓮縣花蓮市公園路</t>
-  </si>
-  <si>
-    <t>第一銀行 臺北市大安區重慶南路</t>
-  </si>
-  <si>
-    <t>王繼聆 花蓮縣花蓮市明禮路</t>
-  </si>
-  <si>
-    <t>99年01月 31日</t>
-  </si>
-  <si>
-    <t>99年04月 30日</t>
-  </si>
-  <si>
-    <t>99年01月 21曰</t>
+    <t>兆豐國際商銀花蓮縣花蓮市公園路</t>
+  </si>
+  <si>
+    <t>第一銀行臺北市大安區重慶南路</t>
+  </si>
+  <si>
+    <t>王繼聆花蓮縣花蓮市明禮路</t>
+  </si>
+  <si>
+    <t>99年01月31日</t>
+  </si>
+  <si>
+    <t>99年04月30日</t>
+  </si>
+  <si>
+    <t>99年01月21曰</t>
   </si>
   <si>
     <t>家用</t>
@@ -751,13 +745,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,109 +773,167 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>387</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1727</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>5594.94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2">
         <v>12000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1727</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>387</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1727</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2">
         <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -899,48 +951,48 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>156.87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2">
         <v>588400</v>
@@ -948,25 +1000,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>84.08</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2">
         <v>298700</v>
@@ -974,28 +1026,28 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1013,42 +1065,42 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2">
         <v>400000</v>
@@ -1069,36 +1121,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>10730</v>
@@ -1106,19 +1158,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2">
         <v>302970</v>
@@ -1126,19 +1178,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2">
         <v>1007308</v>
@@ -1146,19 +1198,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2">
         <v>11957</v>
@@ -1179,54 +1231,54 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>6041</v>
@@ -1235,42 +1287,42 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2">
         <v>60410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L2" s="2">
         <v>1727</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
         <v>10000</v>
@@ -1279,42 +1331,42 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>1727</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>11656</v>
@@ -1323,42 +1375,42 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2">
         <v>116560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L4" s="2">
         <v>1727</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>2187</v>
@@ -1367,42 +1419,42 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2">
         <v>21870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L5" s="2">
         <v>1727</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N5" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>21736</v>
@@ -1411,42 +1463,42 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2">
         <v>217360</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L6" s="2">
         <v>1727</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N6" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>199959</v>
@@ -1455,42 +1507,42 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2">
         <v>1999590</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L7" s="2">
         <v>1727</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N7" s="2">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
         <v>71715</v>
@@ -1499,42 +1551,42 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2">
         <v>717150</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L8" s="2">
         <v>1727</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N8" s="2">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>15293</v>
@@ -1543,42 +1595,42 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G9" s="2">
         <v>152930</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L9" s="2">
         <v>1727</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N9" s="2">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
         <v>24581</v>
@@ -1587,42 +1639,42 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2">
         <v>245810</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L10" s="2">
         <v>1727</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N10" s="2">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>15503</v>
@@ -1631,42 +1683,42 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G11" s="2">
         <v>155030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L11" s="2">
         <v>1727</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N11" s="2">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
         <v>1344</v>
@@ -1675,42 +1727,42 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G12" s="2">
         <v>13440</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L12" s="2">
         <v>1727</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N12" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
         <v>10000</v>
@@ -1719,42 +1771,42 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G13" s="2">
         <v>100000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L13" s="2">
         <v>1727</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N13" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2">
         <v>231699</v>
@@ -1763,42 +1815,42 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G14" s="2">
         <v>2316990</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L14" s="2">
         <v>1727</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N14" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2">
         <v>3691</v>
@@ -1807,42 +1859,42 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G15" s="2">
         <v>36910</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L15" s="2">
         <v>1727</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N15" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2">
         <v>2050</v>
@@ -1851,42 +1903,42 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G16" s="2">
         <v>20500</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L16" s="2">
         <v>1727</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N16" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2">
         <v>1010</v>
@@ -1895,42 +1947,42 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G17" s="2">
         <v>10100</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L17" s="2">
         <v>1727</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N17" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
         <v>10146</v>
@@ -1939,42 +1991,42 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2">
         <v>101460</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L18" s="2">
         <v>1727</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N18" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
         <v>10094</v>
@@ -1983,42 +2035,42 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G19" s="2">
         <v>100940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L19" s="2">
         <v>1727</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N19" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2">
         <v>3516</v>
@@ -2027,31 +2079,31 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G20" s="2">
         <v>35160</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L20" s="2">
         <v>1727</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N20" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2069,62 +2121,62 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>94</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2142,27 +2194,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2180,91 +2232,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2">
         <v>4182443</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2">
         <v>2354028</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2">
         <v>700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王廷升_2011-12-06_財產申報表_tmp44311.xlsx
+++ b/legislator/property/output/normal/王廷升_2011-12-06_財產申報表_tmp44311.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>99年09月14日</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>豐田國辱</t>
@@ -1043,38 +1046,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1">
-        <v>1998</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1083,13 +1107,34 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="2">
         <v>400000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1727</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1107,13 +1152,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1127,13 +1172,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1147,13 +1192,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1167,13 +1212,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1187,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1223,13 +1268,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1261,7 +1306,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1273,13 +1318,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2">
         <v>60410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -1305,7 +1350,7 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1317,13 +1362,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>32</v>
@@ -1349,7 +1394,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1361,13 +1406,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2">
         <v>116560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>32</v>
@@ -1393,7 +1438,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1405,13 +1450,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2">
         <v>21870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>32</v>
@@ -1437,7 +1482,7 @@
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1449,13 +1494,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2">
         <v>217360</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>32</v>
@@ -1481,7 +1526,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -1493,13 +1538,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2">
         <v>1999590</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>32</v>
@@ -1525,7 +1570,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -1537,13 +1582,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2">
         <v>717150</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>32</v>
@@ -1569,7 +1614,7 @@
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -1581,13 +1626,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2">
         <v>152930</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>32</v>
@@ -1613,7 +1658,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -1625,13 +1670,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="2">
         <v>245810</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>32</v>
@@ -1657,7 +1702,7 @@
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -1669,13 +1714,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2">
         <v>155030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>32</v>
@@ -1701,7 +1746,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -1713,13 +1758,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2">
         <v>13440</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>32</v>
@@ -1745,7 +1790,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -1757,13 +1802,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2">
         <v>100000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>32</v>
@@ -1789,7 +1834,7 @@
         <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
@@ -1801,13 +1846,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2">
         <v>2316990</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>32</v>
@@ -1833,7 +1878,7 @@
         <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
@@ -1845,13 +1890,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2">
         <v>36910</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>32</v>
@@ -1877,7 +1922,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
@@ -1889,13 +1934,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16" s="2">
         <v>20500</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>32</v>
@@ -1921,7 +1966,7 @@
         <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
@@ -1933,13 +1978,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" s="2">
         <v>10100</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>32</v>
@@ -1965,7 +2010,7 @@
         <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>21</v>
@@ -1977,13 +2022,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18" s="2">
         <v>101460</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>32</v>
@@ -2009,7 +2054,7 @@
         <v>73</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -2021,13 +2066,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G19" s="2">
         <v>100940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>32</v>
@@ -2053,7 +2098,7 @@
         <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
@@ -2065,13 +2110,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G20" s="2">
         <v>35160</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>32</v>
@@ -2107,14 +2152,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2124,16 +2169,16 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2141,22 +2186,22 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2219,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
@@ -2188,10 +2233,10 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -2212,22 +2257,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1">
         <v>4182443</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2235,22 +2280,22 @@
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>4182443</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2258,22 +2303,22 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>2354028</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2281,22 +2326,22 @@
         <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2">
         <v>700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王廷升_2011-12-06_財產申報表_tmp44311.xlsx
+++ b/legislator/property/output/normal/王廷升_2011-12-06_財產申報表_tmp44311.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -137,6 +137,9 @@
     <t>99年09月14日</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -144,6 +147,9 @@
   </si>
   <si>
     <t>95年07月21曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>花蓮縣花蓮市農會信用部</t>
@@ -959,7 +965,7 @@
         <v>588400</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>32</v>
@@ -1012,7 +1018,7 @@
         <v>298700</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>32</v>
@@ -1057,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1098,7 +1104,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1107,7 +1113,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
@@ -1116,7 +1122,7 @@
         <v>400000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -1152,13 +1158,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1172,13 +1178,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1192,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1212,13 +1218,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1232,13 +1238,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1268,13 +1274,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1306,7 +1312,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1318,13 +1324,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2">
         <v>60410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -1350,7 +1356,7 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1362,13 +1368,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>32</v>
@@ -1394,7 +1400,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1406,13 +1412,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2">
         <v>116560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>32</v>
@@ -1438,7 +1444,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1450,13 +1456,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2">
         <v>21870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>32</v>
@@ -1482,7 +1488,7 @@
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1494,13 +1500,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2">
         <v>217360</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>32</v>
@@ -1526,7 +1532,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -1538,13 +1544,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2">
         <v>1999590</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>32</v>
@@ -1570,7 +1576,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -1582,13 +1588,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2">
         <v>717150</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>32</v>
@@ -1614,7 +1620,7 @@
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -1626,13 +1632,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="2">
         <v>152930</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>32</v>
@@ -1658,7 +1664,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -1670,13 +1676,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2">
         <v>245810</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>32</v>
@@ -1702,7 +1708,7 @@
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -1714,13 +1720,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2">
         <v>155030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>32</v>
@@ -1746,7 +1752,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -1758,13 +1764,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G12" s="2">
         <v>13440</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>32</v>
@@ -1790,7 +1796,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -1802,13 +1808,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2">
         <v>100000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>32</v>
@@ -1834,7 +1840,7 @@
         <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
@@ -1846,13 +1852,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2">
         <v>2316990</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>32</v>
@@ -1878,7 +1884,7 @@
         <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
@@ -1890,13 +1896,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G15" s="2">
         <v>36910</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>32</v>
@@ -1922,7 +1928,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
@@ -1934,13 +1940,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2">
         <v>20500</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>32</v>
@@ -1966,7 +1972,7 @@
         <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
@@ -1978,13 +1984,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G17" s="2">
         <v>10100</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>32</v>
@@ -2010,7 +2016,7 @@
         <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>21</v>
@@ -2022,13 +2028,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G18" s="2">
         <v>101460</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>32</v>
@@ -2054,7 +2060,7 @@
         <v>73</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -2066,13 +2072,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G19" s="2">
         <v>100940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>32</v>
@@ -2098,7 +2104,7 @@
         <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
@@ -2110,13 +2116,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G20" s="2">
         <v>35160</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>32</v>
@@ -2152,14 +2158,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2169,16 +2175,16 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2186,22 +2192,22 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2219,10 +2225,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
@@ -2233,10 +2239,10 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -2257,22 +2263,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1">
         <v>4182443</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2280,22 +2286,22 @@
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>4182443</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2303,22 +2309,22 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2">
         <v>2354028</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2326,22 +2332,22 @@
         <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2">
         <v>700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王廷升_2011-12-06_財產申報表_tmp44311.xlsx
+++ b/legislator/property/output/normal/王廷升_2011-12-06_財產申報表_tmp44311.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -152,31 +152,40 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>花蓮縣花蓮市農會信用部</t>
   </si>
   <si>
+    <t>兆豐國際商業銀行花蓮分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行花蓮分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行花蓮分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>兆豐國際商業銀行花蓮分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行花蓮分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行花蓮分行</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>聯華實業股份有限公司</t>
@@ -1150,13 +1159,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1167,24 +1176,45 @@
         <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1">
-        <v>10730</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1192,19 +1222,40 @@
       <c r="F2" s="2">
         <v>10730</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1727</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1212,19 +1263,40 @@
       <c r="F3" s="2">
         <v>302970</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1727</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1232,25 +1304,67 @@
       <c r="F4" s="2">
         <v>1007308</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1727</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="2">
         <v>11957</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1727</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1274,13 +1388,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1312,7 +1426,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1324,13 +1438,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2">
         <v>60410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -1356,7 +1470,7 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1368,13 +1482,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>32</v>
@@ -1400,7 +1514,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1412,13 +1526,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2">
         <v>116560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>32</v>
@@ -1444,7 +1558,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1456,13 +1570,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2">
         <v>21870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>32</v>
@@ -1488,7 +1602,7 @@
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1500,13 +1614,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2">
         <v>217360</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>32</v>
@@ -1532,7 +1646,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -1544,13 +1658,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2">
         <v>1999590</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>32</v>
@@ -1576,7 +1690,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -1588,13 +1702,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2">
         <v>717150</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>32</v>
@@ -1620,7 +1734,7 @@
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -1632,13 +1746,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2">
         <v>152930</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>32</v>
@@ -1664,7 +1778,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -1676,13 +1790,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2">
         <v>245810</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>32</v>
@@ -1708,7 +1822,7 @@
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -1720,13 +1834,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G11" s="2">
         <v>155030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>32</v>
@@ -1752,7 +1866,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -1764,13 +1878,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2">
         <v>13440</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>32</v>
@@ -1796,7 +1910,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -1808,13 +1922,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2">
         <v>100000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>32</v>
@@ -1840,7 +1954,7 @@
         <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
@@ -1852,13 +1966,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G14" s="2">
         <v>2316990</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>32</v>
@@ -1884,7 +1998,7 @@
         <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
@@ -1896,13 +2010,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G15" s="2">
         <v>36910</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>32</v>
@@ -1928,7 +2042,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
@@ -1940,13 +2054,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G16" s="2">
         <v>20500</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>32</v>
@@ -1972,7 +2086,7 @@
         <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
@@ -1984,13 +2098,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G17" s="2">
         <v>10100</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>32</v>
@@ -2016,7 +2130,7 @@
         <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>21</v>
@@ -2028,13 +2142,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G18" s="2">
         <v>101460</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>32</v>
@@ -2060,7 +2174,7 @@
         <v>73</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -2072,13 +2186,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G19" s="2">
         <v>100940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>32</v>
@@ -2104,7 +2218,7 @@
         <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
@@ -2116,13 +2230,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G20" s="2">
         <v>35160</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>32</v>
@@ -2158,14 +2272,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2175,16 +2289,16 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2192,22 +2306,22 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2225,10 +2339,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
@@ -2239,10 +2353,10 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -2263,22 +2377,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1">
         <v>4182443</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2286,22 +2400,22 @@
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>4182443</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2309,22 +2423,22 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2">
         <v>2354028</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2332,22 +2446,22 @@
         <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2">
         <v>700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王廷升_2011-12-06_財產申報表_tmp44311.xlsx
+++ b/legislator/property/output/normal/王廷升_2011-12-06_財產申報表_tmp44311.xlsx
@@ -12,16 +12,15 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
-    <sheet name="保險" sheetId="7" r:id="rId7"/>
-    <sheet name="債務" sheetId="8" r:id="rId8"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
+    <sheet name="債務" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -249,33 +248,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>I額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>安泰人壽</t>
@@ -2264,73 +2236,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>90</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>91</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2339,10 +2244,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
@@ -2353,10 +2258,10 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -2367,7 +2272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -2377,22 +2282,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1">
         <v>4182443</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2400,22 +2305,22 @@
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>4182443</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2423,22 +2328,22 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>2354028</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2446,22 +2351,22 @@
         <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2">
         <v>700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王廷升_2011-12-06_財產申報表_tmp44311.xlsx
+++ b/legislator/property/output/normal/王廷升_2011-12-06_財產申報表_tmp44311.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -250,40 +250,55 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>安泰人壽</t>
   </si>
   <si>
     <t>LPL安泰分紅終身壽險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>抵押貸款</t>
   </si>
   <si>
+    <t>公務員貸款</t>
+  </si>
+  <si>
+    <t>民間借款</t>
+  </si>
+  <si>
     <t>兆豐國際商銀花蓮縣花蓮市公園路</t>
   </si>
   <si>
+    <t>第一銀行臺北市大安區重慶南路</t>
+  </si>
+  <si>
+    <t>王繼聆花蓮縣花蓮市明禮路</t>
+  </si>
+  <si>
     <t>99年01月31日</t>
   </si>
   <si>
+    <t>99年04月30日</t>
+  </si>
+  <si>
+    <t>99年01月21曰</t>
+  </si>
+  <si>
     <t>家用</t>
   </si>
   <si>
-    <t>公務員貸款</t>
-  </si>
-  <si>
-    <t>民間借款</t>
-  </si>
-  <si>
-    <t>第一銀行臺北市大安區重慶南路</t>
-  </si>
-  <si>
-    <t>王繼聆花蓮縣花蓮市明禮路</t>
-  </si>
-  <si>
-    <t>99年04月30日</t>
-  </si>
-  <si>
-    <t>99年01月21曰</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2236,35 +2251,77 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1727</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2274,99 +2331,183 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4182443</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>4182443</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>91</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1727</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2">
         <v>2354028</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>91</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1727</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2">
         <v>700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1727</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="2">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
